--- a/NAMlab-main/Unit3/Lab01_网络业务数据处理/network.xlsx
+++ b/NAMlab-main/Unit3/Lab01_网络业务数据处理/network.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,477 +434,432 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>hhh</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>hhh</t>
+          <t>jj</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>jj</t>
+          <t>oo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>oo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>ooo</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>126495</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>126495</t>
+          <t>Dec 15, 2023 10:04 AM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dec 15, 2023 10:04 AM</t>
+          <t>S2 - High</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>AE Client</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>126127</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dec 14, 2023 01:54 PM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S4 - Low</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AE Client</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>126124</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dec 14, 2023 01:18 PM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>S1 - Critical</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AE Client</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Onhold</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>125749</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dec 13, 2023 04:16 PM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S1 - Critical</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AE Client</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Onhold</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>125390</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dec 12, 2023 10:26 PM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S4 - Low</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AE Client</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>125279</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dec 12, 2023 12:08 PM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S4 - Low</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>AE Client</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>122755</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dec 6, 2023 03:11 PM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>S4 - Low</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AE Client</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>122304</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dec 5, 2023 10:36 AM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>S4 - Low</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AE Client</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Onhold</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>120459</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nov 30, 2023 04:05 PM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>S4 - Low</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>AE Client</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>120445</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nov 30, 2023 02:50 PM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>S2 - High</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>126127</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dec 14, 2023 01:54 PM</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>S4 - Low</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>126124</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Dec 14, 2023 01:18 PM</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>S1 - Critical</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Onhold</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>125749</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Dec 13, 2023 04:16 PM</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>S1 - Critical</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Onhold</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>125390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Dec 12, 2023 10:26 PM</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>S4 - Low</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>125279</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Dec 12, 2023 12:08 PM</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>S4 - Low</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>122755</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Dec 6, 2023 03:11 PM</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>S4 - Low</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>122304</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Dec 5, 2023 10:36 AM</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>S4 - Low</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Onhold</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>120459</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Nov 30, 2023 04:05 PM</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>S4 - Low</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>120445</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Nov 30, 2023 02:50 PM</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>S2 - High</t>
+          <t>AE Client</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>120436</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>120436</t>
+          <t>Nov 30, 2023 02:36 PM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nov 30, 2023 02:36 PM</t>
+          <t>S3 - Medium</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S3 - Medium</t>
+          <t>AE Client</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>119856</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>119856</t>
+          <t>Nov 29, 2023 09:49 AM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nov 29, 2023 09:49 AM</t>
+          <t>S4 - Low</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S4 - Low</t>
+          <t>AE Client</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>117930</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>117930</t>
+          <t>Nov 24, 2023 07:19 PM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nov 24, 2023 07:19 PM</t>
+          <t>S4 - Low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>S4 - Low</t>
+          <t>AE Client</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>116596</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>116596</t>
+          <t>Nov 21, 2023 01:48 PM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nov 21, 2023 01:48 PM</t>
+          <t>S4 - Low</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>S4 - Low</t>
+          <t>AE Client</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>112067</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>112067</t>
+          <t>Nov 10, 2023 09:27 AM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nov 10, 2023 09:27 AM</t>
+          <t>S4 - Low</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S4 - Low</t>
+          <t>AE Client</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
-        <is>
-          <t>AE Client</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
         <is>
           <t>In Progress</t>
         </is>
